--- a/web_helper/data/convert_rule.xlsx
+++ b/web_helper/data/convert_rule.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Asia Handicap" sheetId="1" r:id="rId1"/>
+    <sheet name="Convert Rate " sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>平手</t>
   </si>
@@ -63,60 +63,33 @@
     <t>三球</t>
   </si>
   <si>
-    <r>
-      <t>A表：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>标准赔率--亚洲让球盘口精确换算表</t>
-    </r>
+    <t>Decimal</t>
   </si>
   <si>
-    <r>
-      <t>B表：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>各国赔率表示模式对照表</t>
-    </r>
+    <t>America</t>
   </si>
   <si>
-    <t>美国赔率</t>
+    <t>HongKong</t>
   </si>
   <si>
-    <t>中国香港赔率</t>
+    <t>Indonesia</t>
   </si>
   <si>
-    <t>小数赔率</t>
+    <t xml:space="preserve"> Malaysia</t>
   </si>
   <si>
-    <t>印尼赔率</t>
-  </si>
-  <si>
-    <t>马来西亚赔率</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -129,21 +102,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -161,10 +120,16 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -193,12 +158,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -207,25 +187,25 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -243,7 +223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -317,7 +297,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -352,7 +331,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,1859 +506,1851 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:I24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N2" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="2:18">
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>2.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="1">
         <v>2.6</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="1">
         <v>2.65</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="1">
         <v>2.7</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="1">
         <v>2.75</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="1">
         <v>2.8</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="1">
         <v>2.85</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="1">
         <v>2.9</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="1">
         <v>2.95</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="1">
         <v>3</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="1">
         <v>3.05</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="1">
         <v>3.1</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="1">
         <v>3.15</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="1">
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:18">
+      <c r="B3" s="6"/>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>0.75</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>0.8</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>0.85</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>0.875</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>0.9</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.95</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
       <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>1.05</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="2:18">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="1">
         <v>2.1</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="1">
         <v>2.13</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="1">
         <v>2.17</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="1">
         <v>2.23</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="1">
         <v>2.27</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="1">
         <v>2.33</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="1">
         <v>2.37</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="1">
         <v>2.4</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="1">
         <v>2.46</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:18">
+      <c r="B5" s="6"/>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>0.75</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>0.8</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>0.85</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>0.875</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>0.9</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.95</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
       <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>1.05</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="2:18">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>1.75</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="1">
         <v>1.78</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="1">
         <v>1.8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="1">
         <v>1.83</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="1">
         <v>1.85</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="1">
         <v>1.88</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="1">
         <v>1.9</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="1">
         <v>1.93</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="1">
         <v>1.95</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="1">
         <v>1.98</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="1">
         <v>2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="1">
         <v>2.08</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:18">
+      <c r="B7" s="6"/>
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>0.75</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>0.8</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>0.85</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>0.875</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>0.9</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.95</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M7" s="4">
-        <v>1</v>
-      </c>
       <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>1.05</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="2:18">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>1.5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="1">
         <v>1.52</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="1">
         <v>1.53</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="1">
         <v>1.55</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="1">
         <v>1.57</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="1">
         <v>1.58</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="1">
         <v>1.6</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="1">
         <v>1.62</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="1">
         <v>1.63</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="1">
         <v>1.65</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="1">
         <v>1.67</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="1">
         <v>1.68</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="1">
         <v>1.7</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="1">
         <v>1.72</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="1">
         <v>1.73</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:18">
+      <c r="B9" s="6"/>
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>0.75</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>0.8</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>0.85</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>0.875</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>0.9</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>0.95</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
       <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>1.05</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="2:18">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>1.38</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="1">
         <v>1.39</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="1">
         <v>1.4</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="1">
         <v>1.41</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="1">
         <v>1.43</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="1">
         <v>1.44</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="1">
         <v>1.45</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="1">
         <v>1.46</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="1">
         <v>1.48</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="1">
         <v>1.49</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="1">
         <v>1.5</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="1">
         <v>1.51</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="1">
         <v>1.53</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="1">
         <v>1.54</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="1">
         <v>1.55</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:18">
+      <c r="B11" s="6"/>
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>0.75</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>0.8</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>0.85</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>0.875</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>0.9</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>0.95</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M11" s="4">
-        <v>1</v>
-      </c>
       <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>1.05</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="2:18">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>1.3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="1">
         <v>1.31</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="1">
         <v>1.32</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="1">
         <v>1.33</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="1">
         <v>1.34</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="1">
         <v>1.35</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="1">
         <v>1.36</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="1">
         <v>1.37</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="1">
         <v>1.38</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="1">
         <v>1.39</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="1">
         <v>1.4</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="1">
         <v>1.41</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="1">
         <v>1.42</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="1">
         <v>1.43</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="1">
         <v>1.44</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="2:18">
+      <c r="B13" s="6"/>
+      <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>0.75</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>0.8</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>0.85</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>0.875</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>0.9</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>0.95</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
       <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>1.05</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="2:18">
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <v>1.25</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="1">
         <v>1.26</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="1">
         <v>1.27</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="5">
         <v>1.28</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="2">
+      <c r="H14" s="5"/>
+      <c r="I14" s="1">
         <v>1.29</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="1">
         <v>1.3</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="1">
         <v>1.31</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="1">
         <v>1.32</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="5">
         <v>1.33</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="2">
+      <c r="N14" s="5"/>
+      <c r="O14" s="1">
         <v>1.34</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="1">
         <v>1.35</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="1">
         <v>1.36</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="1">
         <v>1.37</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:18">
+      <c r="B15" s="6"/>
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>0.75</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>0.8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>0.85</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>0.875</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>0.9</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>0.95</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
       <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>1.05</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="2:18">
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
         <v>1.21</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E16" s="5">
         <v>1.22</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
         <v>1.24</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="2">
+      <c r="H16" s="5"/>
+      <c r="I16" s="1">
         <v>1.25</v>
       </c>
-      <c r="I16" s="7">
+      <c r="J16" s="5">
         <v>1.26</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="2">
+      <c r="K16" s="5"/>
+      <c r="L16" s="1">
         <v>1.27</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="1">
         <v>1.28</v>
       </c>
-      <c r="M16" s="7">
+      <c r="N16" s="5">
         <v>1.29</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="2">
+      <c r="O16" s="5"/>
+      <c r="P16" s="1">
         <v>1.3</v>
       </c>
-      <c r="P16" s="7">
+      <c r="Q16" s="5">
         <v>1.31</v>
       </c>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="1" t="s">
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="6"/>
+      <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>0.75</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>0.8</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>0.85</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>0.875</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>0.9</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.95</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M17" s="4">
-        <v>1</v>
-      </c>
       <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>1.05</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="2:18">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
         <v>1.19</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="2">
+      <c r="E18" s="5"/>
+      <c r="F18" s="1">
         <v>1.2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="5">
         <v>1.21</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="2">
+      <c r="H18" s="5"/>
+      <c r="I18" s="1">
         <v>1.22</v>
       </c>
-      <c r="I18" s="7">
+      <c r="J18" s="5">
         <v>1.23</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
         <v>1.24</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="2">
+      <c r="M18" s="5"/>
+      <c r="N18" s="1">
         <v>1.25</v>
       </c>
-      <c r="N18" s="7">
+      <c r="O18" s="5">
         <v>1.26</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="2">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="1">
         <v>1.27</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="1">
         <v>1.28</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:18">
+      <c r="B19" s="6"/>
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>0.75</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>0.8</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>0.85</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>0.875</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>0.9</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>0.95</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M19" s="4">
-        <v>1</v>
-      </c>
       <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>1.05</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="2:18">
+      <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>1.17</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
         <v>1.18</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
         <v>1.19</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="2">
+      <c r="I20" s="5"/>
+      <c r="J20" s="1">
         <v>1.2</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="5">
         <v>1.21</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5">
         <v>1.22</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5">
         <v>1.23</v>
       </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5">
         <v>1.24</v>
       </c>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1" t="s">
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="6"/>
+      <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>0.75</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>0.8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>0.85</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>0.875</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>0.9</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>0.95</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M21" s="4">
-        <v>1</v>
-      </c>
       <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>1.05</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="R21" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="2:18">
+      <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5">
         <v>1.17</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="2">
+      <c r="I22" s="5"/>
+      <c r="J22" s="1">
         <v>1.18</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="5">
         <v>1.19</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5">
         <v>1.2</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5">
         <v>1.21</v>
       </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5">
         <v>1.22</v>
       </c>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1" t="s">
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="6"/>
+      <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>0.75</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>0.8</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>0.85</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>0.875</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>0.9</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>0.95</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M23" s="4">
-        <v>1</v>
-      </c>
       <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <v>1.05</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="2:18">
+      <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5">
         <v>1.17</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5">
         <v>1.18</v>
       </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5">
         <v>1.19</v>
       </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5">
         <v>1.2</v>
       </c>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="1" t="s">
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="6"/>
+      <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>0.75</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>0.8</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>0.85</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>0.875</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>0.9</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>0.95</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M25" s="4">
-        <v>1</v>
-      </c>
       <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <v>1.05</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="2:18">
+      <c r="B26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="2">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M26" s="7">
+      <c r="N26" s="5">
         <v>1.17</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7">
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5">
         <v>1.18</v>
       </c>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1" t="s">
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="6"/>
+      <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>0.75</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>0.8</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>0.85</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>0.875</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>0.9</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
         <v>0.95</v>
       </c>
-      <c r="L27" s="4">
+      <c r="M27" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M27" s="4">
-        <v>1</v>
-      </c>
       <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="O27" s="4">
+      <c r="P27" s="4">
         <v>1.05</v>
       </c>
-      <c r="P27" s="4">
+      <c r="Q27" s="4">
         <v>1.075</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="R27" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="2" spans="2:6" ht="15" customHeight="1">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1">
         <v>1000</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="1">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="1">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+    <row r="4" spans="2:6">
+      <c r="B4" s="1">
         <v>500</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="1">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+    <row r="5" spans="2:6">
+      <c r="B5" s="1">
         <v>150</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="1">
         <v>1.5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="1">
         <v>2.5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="1">
         <v>1.5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="1">
         <v>-0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+    <row r="6" spans="2:6">
+      <c r="B6" s="1">
         <v>100</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+    <row r="7" spans="2:6">
+      <c r="B7" s="1">
         <v>-103</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="1">
         <v>0.97</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="1">
         <v>1.97</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="1">
         <v>-1.03</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="1">
         <v>0.97</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+    <row r="8" spans="2:6">
+      <c r="B8" s="1">
         <v>-106</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="1">
         <v>0.94</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="1">
         <v>1.94</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="1">
         <v>-1.06</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="1">
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+    <row r="9" spans="2:6">
+      <c r="B9" s="1">
         <v>-110</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="1">
         <v>0.91</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="1">
         <v>1.91</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="1">
         <v>0.91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+    <row r="10" spans="2:6">
+      <c r="B10" s="1">
         <v>-114</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="1">
         <v>0.88</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="1">
         <v>1.88</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="1">
         <v>-1.1399999999999999</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="1">
         <v>0.88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+    <row r="11" spans="2:6">
+      <c r="B11" s="1">
         <v>-118</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="1">
         <v>0.85</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="1">
         <v>1.85</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="1">
         <v>-1.18</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+    <row r="12" spans="2:6">
+      <c r="B12" s="1">
         <v>-122</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="1">
         <v>0.82</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="1">
         <v>1.82</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="1">
         <v>-1.22</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="1">
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+    <row r="13" spans="2:6">
+      <c r="B13" s="1">
         <v>-127</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="1">
         <v>0.79</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="1">
         <v>1.79</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="1">
         <v>-1.27</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="1">
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+    <row r="14" spans="2:6">
+      <c r="B14" s="1">
         <v>-132</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="1">
         <v>0.76</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="1">
         <v>1.76</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="1">
         <v>-1.32</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="1">
         <v>0.76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+    <row r="15" spans="2:6">
+      <c r="B15" s="1">
         <v>-137</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="1">
         <v>0.73</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="1">
         <v>1.73</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="1">
         <v>-1.37</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="1">
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+    <row r="16" spans="2:6">
+      <c r="B16" s="1">
         <v>-143</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="1">
         <v>0.7</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="1">
         <v>1.7</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="1">
         <v>-1.43</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+    <row r="17" spans="2:6">
+      <c r="B17" s="1">
         <v>-154</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="1">
         <v>0.65</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="1">
         <v>1.65</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="1">
         <v>-1.54</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+    <row r="18" spans="2:6">
+      <c r="B18" s="1">
         <v>-167</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="1">
         <v>0.6</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="1">
         <v>1.6</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="1">
         <v>-1.67</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+    <row r="19" spans="2:6">
+      <c r="B19" s="1">
         <v>-182</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="1">
         <v>1.55</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="1">
         <v>-1.82</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="1">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+    <row r="20" spans="2:6">
+      <c r="B20" s="1">
         <v>-200</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="1">
         <v>0.5</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="1">
         <v>1.5</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="1">
         <v>-2</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+    <row r="21" spans="2:6">
+      <c r="B21" s="1">
         <v>-222</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="1">
         <v>0.45</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="1">
         <v>1.45</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="1">
         <v>-2.2200000000000002</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="1">
         <v>0.45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+    <row r="22" spans="2:6">
+      <c r="B22" s="1">
         <v>-250</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="1">
         <v>0.4</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="1">
         <v>1.4</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="1">
         <v>-2.5</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+    <row r="23" spans="2:6">
+      <c r="B23" s="1">
         <v>-286</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="1">
         <v>0.35</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="1">
         <v>1.35</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="1">
         <v>-2.86</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="1">
         <v>0.35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+    <row r="24" spans="2:6">
+      <c r="B24" s="1">
         <v>-333</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="1">
         <v>0.3</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="1">
         <v>1.3</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="1">
         <v>-3.33</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+    <row r="25" spans="2:6">
+      <c r="B25" s="1">
         <v>-400</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C25" s="1">
         <v>0.25</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="1">
         <v>1.25</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="1">
         <v>-4</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+    <row r="26" spans="2:6">
+      <c r="B26" s="1">
         <v>-500</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="1">
         <v>0.2</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="1">
         <v>1.2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="1">
         <v>-5</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+    <row r="27" spans="2:6">
+      <c r="B27" s="1">
         <v>-667</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="1">
         <v>0.15</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="1">
         <v>-6.67</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+    <row r="28" spans="2:6">
+      <c r="B28" s="1">
         <v>-1000</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="1">
         <v>0.1</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="1">
         <v>-10</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="1">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>